--- a/Code/Results/Cases/Case_5_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_93/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.92638674371999</v>
+        <v>19.0299024646938</v>
       </c>
       <c r="C2">
-        <v>24.16604616856667</v>
+        <v>13.02988195902424</v>
       </c>
       <c r="D2">
-        <v>4.119762527198924</v>
+        <v>5.411078095326297</v>
       </c>
       <c r="E2">
-        <v>30.78243789255326</v>
+        <v>16.46589187120819</v>
       </c>
       <c r="F2">
-        <v>42.24959456308243</v>
+        <v>33.90383578391599</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.57608553292103</v>
+        <v>17.44316607581648</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.60340085304412</v>
+        <v>18.2226977188296</v>
       </c>
       <c r="C3">
-        <v>22.35362873094132</v>
+        <v>12.24552864516589</v>
       </c>
       <c r="D3">
-        <v>4.060446711155026</v>
+        <v>5.420294845771187</v>
       </c>
       <c r="E3">
-        <v>28.36036910608604</v>
+        <v>15.52545175275263</v>
       </c>
       <c r="F3">
-        <v>39.50576099286733</v>
+        <v>33.22637460469882</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.81313934937789</v>
+        <v>17.50383966367419</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.1188209588716</v>
+        <v>17.7152809864411</v>
       </c>
       <c r="C4">
-        <v>21.19666097027793</v>
+        <v>11.74112660364019</v>
       </c>
       <c r="D4">
-        <v>4.033103614239467</v>
+        <v>5.427424644875193</v>
       </c>
       <c r="E4">
-        <v>26.82753490645198</v>
+        <v>14.9245583793404</v>
       </c>
       <c r="F4">
-        <v>37.80393676872919</v>
+        <v>32.81680671120823</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.96399407076816</v>
+        <v>17.5430766301334</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.49853973923517</v>
+        <v>17.50588947413828</v>
       </c>
       <c r="C5">
-        <v>20.71351994421892</v>
+        <v>11.53001738689059</v>
       </c>
       <c r="D5">
-        <v>4.023999283830788</v>
+        <v>5.430695470240081</v>
       </c>
       <c r="E5">
-        <v>26.19031398175007</v>
+        <v>14.67406152717285</v>
       </c>
       <c r="F5">
-        <v>37.10592810434798</v>
+        <v>32.65174673131767</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.02672299307602</v>
+        <v>17.55956378142664</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.39460077003924</v>
+        <v>17.47097323410299</v>
       </c>
       <c r="C6">
-        <v>20.63257478449653</v>
+        <v>11.49463281516136</v>
       </c>
       <c r="D6">
-        <v>4.022603861503113</v>
+        <v>5.431260524904916</v>
       </c>
       <c r="E6">
-        <v>26.08371517075129</v>
+        <v>14.63213578358176</v>
       </c>
       <c r="F6">
-        <v>36.98975184428129</v>
+        <v>32.62445671002457</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.03721290925391</v>
+        <v>17.56233149876924</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.11051839215672</v>
+        <v>17.71246715610447</v>
       </c>
       <c r="C7">
-        <v>21.19019310208882</v>
+        <v>11.73830177068373</v>
       </c>
       <c r="D7">
-        <v>4.032972885485921</v>
+        <v>5.427467282885502</v>
       </c>
       <c r="E7">
-        <v>26.81899338502324</v>
+        <v>14.92120248101157</v>
       </c>
       <c r="F7">
-        <v>37.79454147052959</v>
+        <v>32.81457288765623</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.96483506583795</v>
+        <v>17.5432969673107</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.13709005629709</v>
+        <v>18.75422260181159</v>
       </c>
       <c r="C8">
-        <v>23.54991832851241</v>
+        <v>12.76426290818101</v>
       </c>
       <c r="D8">
-        <v>4.09727277581289</v>
+        <v>5.413948140114115</v>
       </c>
       <c r="E8">
-        <v>29.95607716918788</v>
+        <v>16.14664389643332</v>
       </c>
       <c r="F8">
-        <v>41.30685843939779</v>
+        <v>33.66906042346503</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.6566667805207</v>
+        <v>17.4636741721765</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.64511806468836</v>
+        <v>20.69019709301865</v>
       </c>
       <c r="C9">
-        <v>27.85762070289555</v>
+        <v>14.58935103793376</v>
       </c>
       <c r="D9">
-        <v>4.307654353920428</v>
+        <v>5.399302330710603</v>
       </c>
       <c r="E9">
-        <v>35.8054413811198</v>
+        <v>18.43677942462618</v>
       </c>
       <c r="F9">
-        <v>48.32446074833292</v>
+        <v>35.3851708306037</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.0993637762798</v>
+        <v>17.32331052248272</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.49246324539017</v>
+        <v>22.03211809840238</v>
       </c>
       <c r="C10">
-        <v>30.88041477763302</v>
+        <v>15.83207327609944</v>
       </c>
       <c r="D10">
-        <v>4.53330165048745</v>
+        <v>5.396039689456074</v>
       </c>
       <c r="E10">
-        <v>40.02549327901443</v>
+        <v>20.1034978793817</v>
       </c>
       <c r="F10">
-        <v>53.59915494593515</v>
+        <v>36.65709078807711</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.72850366607476</v>
+        <v>17.22986056205369</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.21788814098611</v>
+        <v>22.62258163076735</v>
       </c>
       <c r="C11">
-        <v>32.24077606262681</v>
+        <v>16.39552342057327</v>
       </c>
       <c r="D11">
-        <v>4.750982842790997</v>
+        <v>5.396238391367107</v>
       </c>
       <c r="E11">
-        <v>41.96225208747516</v>
+        <v>20.82061698643642</v>
       </c>
       <c r="F11">
-        <v>56.00957835476736</v>
+        <v>37.23536968867223</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.57167147234226</v>
+        <v>17.18946244811672</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.86979625916004</v>
+        <v>22.8431290553124</v>
       </c>
       <c r="C12">
-        <v>32.75562308965597</v>
+        <v>16.60418592823392</v>
       </c>
       <c r="D12">
-        <v>4.848173292346626</v>
+        <v>5.396559966279663</v>
       </c>
       <c r="E12">
-        <v>42.70207851768163</v>
+        <v>21.08630846517839</v>
       </c>
       <c r="F12">
-        <v>56.92722483775042</v>
+        <v>37.45408400282794</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.51442652005847</v>
+        <v>17.17446992867203</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.72942171519994</v>
+        <v>22.79576830045271</v>
       </c>
       <c r="C13">
-        <v>32.64471950817898</v>
+        <v>16.55945556941721</v>
       </c>
       <c r="D13">
-        <v>4.827151003529568</v>
+        <v>5.39647968589023</v>
       </c>
       <c r="E13">
-        <v>42.54238066359514</v>
+        <v>21.02934728594566</v>
       </c>
       <c r="F13">
-        <v>56.72931208791725</v>
+        <v>37.40699525175848</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.52665125419461</v>
+        <v>17.17768522870712</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.27153636773426</v>
+        <v>22.64078820047841</v>
       </c>
       <c r="C14">
-        <v>32.28312627359757</v>
+        <v>16.41278435378999</v>
       </c>
       <c r="D14">
-        <v>4.758939016779644</v>
+        <v>5.396259886268408</v>
       </c>
       <c r="E14">
-        <v>42.02296199161997</v>
+        <v>20.84259291084896</v>
       </c>
       <c r="F14">
-        <v>56.0849532252176</v>
+        <v>37.25337003105781</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.56691587305314</v>
+        <v>17.18822287521207</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.99094891539246</v>
+        <v>22.54545669807582</v>
       </c>
       <c r="C15">
-        <v>32.06166534756293</v>
+        <v>16.32233208624714</v>
       </c>
       <c r="D15">
-        <v>4.717409949137328</v>
+        <v>5.396157458915321</v>
       </c>
       <c r="E15">
-        <v>41.70577878096081</v>
+        <v>20.7274377651631</v>
       </c>
       <c r="F15">
-        <v>55.6910156713692</v>
+        <v>37.15922896241352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.59187389226247</v>
+        <v>17.19471730391493</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.3793697516577</v>
+        <v>21.9931122596022</v>
       </c>
       <c r="C16">
-        <v>30.79135996759422</v>
+        <v>15.79459104202971</v>
       </c>
       <c r="D16">
-        <v>4.525693947822433</v>
+        <v>5.396060940770883</v>
       </c>
       <c r="E16">
-        <v>39.89957560244346</v>
+        <v>20.05580935891375</v>
       </c>
       <c r="F16">
-        <v>53.44210661108902</v>
+        <v>36.61927326808261</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.73902595396973</v>
+        <v>17.23254331881922</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.38568776499594</v>
+        <v>21.64901578703598</v>
       </c>
       <c r="C17">
-        <v>30.00944053695494</v>
+        <v>15.46480566260421</v>
       </c>
       <c r="D17">
-        <v>4.461422445901922</v>
+        <v>5.396435876056854</v>
       </c>
       <c r="E17">
-        <v>38.79834502338182</v>
+        <v>19.63329498098246</v>
       </c>
       <c r="F17">
-        <v>52.06730821056246</v>
+        <v>36.28778456046521</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.83260664006621</v>
+        <v>17.25629055856476</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.81166532567921</v>
+        <v>21.44922834138448</v>
       </c>
       <c r="C18">
-        <v>29.55818115837455</v>
+        <v>15.2836530714565</v>
       </c>
       <c r="D18">
-        <v>4.426383074819149</v>
+        <v>5.396809678362816</v>
       </c>
       <c r="E18">
-        <v>38.16625362852619</v>
+        <v>19.38640682776752</v>
       </c>
       <c r="F18">
-        <v>51.27734125333615</v>
+        <v>36.09710311631636</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.88751609079228</v>
+        <v>17.27014810529746</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.61683033723028</v>
+        <v>21.38126794783762</v>
       </c>
       <c r="C19">
-        <v>29.40508394806557</v>
+        <v>15.22188702843998</v>
       </c>
       <c r="D19">
-        <v>4.414834672586324</v>
+        <v>5.39696326990292</v>
       </c>
       <c r="E19">
-        <v>37.95236128380679</v>
+        <v>19.30214897137628</v>
       </c>
       <c r="F19">
-        <v>51.00992196938186</v>
+        <v>36.0325454808209</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.90628272142597</v>
+        <v>17.27487412402039</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.49171060654575</v>
+        <v>21.68584056545765</v>
       </c>
       <c r="C20">
-        <v>30.09282293162294</v>
+        <v>15.49812785968368</v>
       </c>
       <c r="D20">
-        <v>4.468060891431628</v>
+        <v>5.396379563967623</v>
       </c>
       <c r="E20">
-        <v>38.91541276053017</v>
+        <v>19.67867249184244</v>
       </c>
       <c r="F20">
-        <v>52.21355644643674</v>
+        <v>36.32307558604352</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.82252989562427</v>
+        <v>17.25374204219344</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.40604865158193</v>
+        <v>22.68639360547148</v>
       </c>
       <c r="C21">
-        <v>32.38932561538972</v>
+        <v>16.45599272683964</v>
       </c>
       <c r="D21">
-        <v>4.778920563482224</v>
+        <v>5.396317727404059</v>
       </c>
       <c r="E21">
-        <v>42.17531547735708</v>
+        <v>20.89760607006963</v>
       </c>
       <c r="F21">
-        <v>56.2740530606634</v>
+        <v>37.29850244377744</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.55502674051767</v>
+        <v>17.18511941245413</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.30362194841121</v>
+        <v>23.32248186787035</v>
       </c>
       <c r="C22">
-        <v>33.88981283707405</v>
+        <v>17.05461411943589</v>
       </c>
       <c r="D22">
-        <v>5.065922138699206</v>
+        <v>5.397715049526521</v>
       </c>
       <c r="E22">
-        <v>44.34617601160605</v>
+        <v>21.66007742077278</v>
       </c>
       <c r="F22">
-        <v>58.95863228266588</v>
+        <v>37.93434744083881</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.39302164979066</v>
+        <v>17.14205127403829</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.29063745891847</v>
+        <v>22.98467222003882</v>
       </c>
       <c r="C23">
-        <v>33.08825284238349</v>
+        <v>16.73761883403753</v>
       </c>
       <c r="D23">
-        <v>4.911511166595735</v>
+        <v>5.396836316537512</v>
       </c>
       <c r="E23">
-        <v>43.18217032773111</v>
+        <v>21.25624525779039</v>
       </c>
       <c r="F23">
-        <v>57.52160239715713</v>
+        <v>37.59520630896871</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.47812561429666</v>
+        <v>17.16487407481469</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.4437863674305</v>
+        <v>21.66919818016649</v>
       </c>
       <c r="C24">
-        <v>30.05513124908426</v>
+        <v>15.48307098709758</v>
       </c>
       <c r="D24">
-        <v>4.465053739899187</v>
+        <v>5.396404530088661</v>
       </c>
       <c r="E24">
-        <v>38.86248353755471</v>
+        <v>19.65816971602738</v>
       </c>
       <c r="F24">
-        <v>52.14743653489317</v>
+        <v>36.3071208209746</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82708216925995</v>
+        <v>17.25489358821267</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.195241537891</v>
+        <v>20.17962238864113</v>
       </c>
       <c r="C25">
-        <v>26.72171157539399</v>
+        <v>14.1163163754722</v>
       </c>
       <c r="D25">
-        <v>4.239859589838022</v>
+        <v>5.401966546699272</v>
       </c>
       <c r="E25">
-        <v>34.24587849566008</v>
+        <v>17.78629376902386</v>
       </c>
       <c r="F25">
-        <v>46.37477848998955</v>
+        <v>34.91800615943511</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.24426411762601</v>
+        <v>17.35958798893854</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_93/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.0299024646938</v>
+        <v>30.92638674372003</v>
       </c>
       <c r="C2">
-        <v>13.02988195902424</v>
+        <v>24.16604616856666</v>
       </c>
       <c r="D2">
-        <v>5.411078095326297</v>
+        <v>4.119762527198949</v>
       </c>
       <c r="E2">
-        <v>16.46589187120819</v>
+        <v>30.78243789255325</v>
       </c>
       <c r="F2">
-        <v>33.90383578391599</v>
+        <v>42.24959456308241</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.44316607581648</v>
+        <v>11.57608553292111</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.2226977188296</v>
+        <v>28.60340085304424</v>
       </c>
       <c r="C3">
-        <v>12.24552864516589</v>
+        <v>22.35362873094127</v>
       </c>
       <c r="D3">
-        <v>5.420294845771187</v>
+        <v>4.060446711155087</v>
       </c>
       <c r="E3">
-        <v>15.52545175275263</v>
+        <v>28.36036910608619</v>
       </c>
       <c r="F3">
-        <v>33.22637460469882</v>
+        <v>39.50576099286724</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.50383966367419</v>
+        <v>11.81313934937774</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.7152809864411</v>
+        <v>27.11882095887156</v>
       </c>
       <c r="C4">
-        <v>11.74112660364019</v>
+        <v>21.19666097027789</v>
       </c>
       <c r="D4">
-        <v>5.427424644875193</v>
+        <v>4.033103614239541</v>
       </c>
       <c r="E4">
-        <v>14.9245583793404</v>
+        <v>26.82753490645198</v>
       </c>
       <c r="F4">
-        <v>32.81680671120823</v>
+        <v>37.80393676872914</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.5430766301334</v>
+        <v>11.96399407076821</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.50588947413828</v>
+        <v>26.49853973923538</v>
       </c>
       <c r="C5">
-        <v>11.53001738689059</v>
+        <v>20.71351994421912</v>
       </c>
       <c r="D5">
-        <v>5.430695470240081</v>
+        <v>4.02399928383089</v>
       </c>
       <c r="E5">
-        <v>14.67406152717285</v>
+        <v>26.19031398175018</v>
       </c>
       <c r="F5">
-        <v>32.65174673131767</v>
+        <v>37.10592810434793</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.55956378142664</v>
+        <v>12.02672299307582</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.47097323410299</v>
+        <v>26.39460077003933</v>
       </c>
       <c r="C6">
-        <v>11.49463281516136</v>
+        <v>20.63257478449674</v>
       </c>
       <c r="D6">
-        <v>5.431260524904916</v>
+        <v>4.022603861503135</v>
       </c>
       <c r="E6">
-        <v>14.63213578358176</v>
+        <v>26.08371517075135</v>
       </c>
       <c r="F6">
-        <v>32.62445671002457</v>
+        <v>36.98975184428126</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.56233149876924</v>
+        <v>12.03721290925381</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.71246715610447</v>
+        <v>27.11051839215662</v>
       </c>
       <c r="C7">
-        <v>11.73830177068373</v>
+        <v>21.19019310208885</v>
       </c>
       <c r="D7">
-        <v>5.427467282885502</v>
+        <v>4.032972885485935</v>
       </c>
       <c r="E7">
-        <v>14.92120248101157</v>
+        <v>26.81899338502315</v>
       </c>
       <c r="F7">
-        <v>32.81457288765623</v>
+        <v>37.79454147052954</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.5432969673107</v>
+        <v>11.96483506583795</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.75422260181159</v>
+        <v>30.13709005629713</v>
       </c>
       <c r="C8">
-        <v>12.76426290818101</v>
+        <v>23.54991832851243</v>
       </c>
       <c r="D8">
-        <v>5.413948140114115</v>
+        <v>4.097272775812902</v>
       </c>
       <c r="E8">
-        <v>16.14664389643332</v>
+        <v>29.95607716918794</v>
       </c>
       <c r="F8">
-        <v>33.66906042346503</v>
+        <v>41.30685843939775</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.4636741721765</v>
+        <v>11.65666678052072</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69019709301865</v>
+        <v>35.64511806468833</v>
       </c>
       <c r="C9">
-        <v>14.58935103793376</v>
+        <v>27.85762070289546</v>
       </c>
       <c r="D9">
-        <v>5.399302330710603</v>
+        <v>4.307654353920396</v>
       </c>
       <c r="E9">
-        <v>18.43677942462618</v>
+        <v>35.80544138111969</v>
       </c>
       <c r="F9">
-        <v>35.3851708306037</v>
+        <v>48.32446074833284</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.32331052248272</v>
+        <v>11.09936377627978</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.03211809840238</v>
+        <v>39.49246324539004</v>
       </c>
       <c r="C10">
-        <v>15.83207327609944</v>
+        <v>30.88041477763297</v>
       </c>
       <c r="D10">
-        <v>5.396039689456074</v>
+        <v>4.533301650487457</v>
       </c>
       <c r="E10">
-        <v>20.1034978793817</v>
+        <v>40.02549327901439</v>
       </c>
       <c r="F10">
-        <v>36.65709078807711</v>
+        <v>53.59915494593501</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.22986056205369</v>
+        <v>10.72850366607478</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.62258163076735</v>
+        <v>41.21788814098611</v>
       </c>
       <c r="C11">
-        <v>16.39552342057327</v>
+        <v>32.24077606262664</v>
       </c>
       <c r="D11">
-        <v>5.396238391367107</v>
+        <v>4.750982842790864</v>
       </c>
       <c r="E11">
-        <v>20.82061698643642</v>
+        <v>41.96225208747515</v>
       </c>
       <c r="F11">
-        <v>37.23536968867223</v>
+        <v>56.00957835476722</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.18946244811672</v>
+        <v>10.57167147234233</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.8431290553124</v>
+        <v>41.86979625916004</v>
       </c>
       <c r="C12">
-        <v>16.60418592823392</v>
+        <v>32.75562308965597</v>
       </c>
       <c r="D12">
-        <v>5.396559966279663</v>
+        <v>4.848173292346559</v>
       </c>
       <c r="E12">
-        <v>21.08630846517839</v>
+        <v>42.70207851768173</v>
       </c>
       <c r="F12">
-        <v>37.45408400282794</v>
+        <v>56.92722483775046</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.17446992867203</v>
+        <v>10.51442652005848</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.79576830045271</v>
+        <v>41.72942171520004</v>
       </c>
       <c r="C13">
-        <v>16.55945556941721</v>
+        <v>32.64471950817918</v>
       </c>
       <c r="D13">
-        <v>5.39647968589023</v>
+        <v>4.827151003529536</v>
       </c>
       <c r="E13">
-        <v>21.02934728594566</v>
+        <v>42.5423806635953</v>
       </c>
       <c r="F13">
-        <v>37.40699525175848</v>
+        <v>56.72931208791746</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.17768522870712</v>
+        <v>10.52665125419459</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.64078820047841</v>
+        <v>41.27153636773419</v>
       </c>
       <c r="C14">
-        <v>16.41278435378999</v>
+        <v>32.28312627359742</v>
       </c>
       <c r="D14">
-        <v>5.396259886268408</v>
+        <v>4.758939016779639</v>
       </c>
       <c r="E14">
-        <v>20.84259291084896</v>
+        <v>42.02296199161986</v>
       </c>
       <c r="F14">
-        <v>37.25337003105781</v>
+        <v>56.08495322521743</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.18822287521207</v>
+        <v>10.5669158730532</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.54545669807582</v>
+        <v>40.99094891539234</v>
       </c>
       <c r="C15">
-        <v>16.32233208624714</v>
+        <v>32.06166534756297</v>
       </c>
       <c r="D15">
-        <v>5.396157458915321</v>
+        <v>4.717409949137282</v>
       </c>
       <c r="E15">
-        <v>20.7274377651631</v>
+        <v>41.70577878096081</v>
       </c>
       <c r="F15">
-        <v>37.15922896241352</v>
+        <v>55.69101567136902</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.19471730391493</v>
+        <v>10.59187389226244</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.9931122596022</v>
+        <v>39.37936975165769</v>
       </c>
       <c r="C16">
-        <v>15.79459104202971</v>
+        <v>30.79135996759421</v>
       </c>
       <c r="D16">
-        <v>5.396060940770883</v>
+        <v>4.5256939478224</v>
       </c>
       <c r="E16">
-        <v>20.05580935891375</v>
+        <v>39.89957560244351</v>
       </c>
       <c r="F16">
-        <v>36.61927326808261</v>
+        <v>53.44210661108895</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.23254331881922</v>
+        <v>10.73902595396963</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.64901578703598</v>
+        <v>38.38568776499605</v>
       </c>
       <c r="C17">
-        <v>15.46480566260421</v>
+        <v>30.00944053695507</v>
       </c>
       <c r="D17">
-        <v>5.396435876056854</v>
+        <v>4.46142244590194</v>
       </c>
       <c r="E17">
-        <v>19.63329498098246</v>
+        <v>38.79834502338168</v>
       </c>
       <c r="F17">
-        <v>36.28778456046521</v>
+        <v>52.06730821056257</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.25629055856476</v>
+        <v>10.83260664006623</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.44922834138448</v>
+        <v>37.81166532567911</v>
       </c>
       <c r="C18">
-        <v>15.2836530714565</v>
+        <v>29.55818115837441</v>
       </c>
       <c r="D18">
-        <v>5.396809678362816</v>
+        <v>4.426383074819118</v>
       </c>
       <c r="E18">
-        <v>19.38640682776752</v>
+        <v>38.16625362852604</v>
       </c>
       <c r="F18">
-        <v>36.09710311631636</v>
+        <v>51.27734125333602</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.27014810529746</v>
+        <v>10.88751609079232</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.38126794783762</v>
+        <v>37.61683033723016</v>
       </c>
       <c r="C19">
-        <v>15.22188702843998</v>
+        <v>29.40508394806553</v>
       </c>
       <c r="D19">
-        <v>5.39696326990292</v>
+        <v>4.414834672586339</v>
       </c>
       <c r="E19">
-        <v>19.30214897137628</v>
+        <v>37.95236128380685</v>
       </c>
       <c r="F19">
-        <v>36.0325454808209</v>
+        <v>51.00992196938164</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.27487412402039</v>
+        <v>10.90628272142595</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.68584056545765</v>
+        <v>38.49171060654589</v>
       </c>
       <c r="C20">
-        <v>15.49812785968368</v>
+        <v>30.09282293162309</v>
       </c>
       <c r="D20">
-        <v>5.396379563967623</v>
+        <v>4.468060891431641</v>
       </c>
       <c r="E20">
-        <v>19.67867249184244</v>
+        <v>38.91541276053035</v>
       </c>
       <c r="F20">
-        <v>36.32307558604352</v>
+        <v>52.21355644643705</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.25374204219344</v>
+        <v>10.8225298956242</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.68639360547148</v>
+        <v>41.40604865158195</v>
       </c>
       <c r="C21">
-        <v>16.45599272683964</v>
+        <v>32.38932561538966</v>
       </c>
       <c r="D21">
-        <v>5.396317727404059</v>
+        <v>4.778920563482076</v>
       </c>
       <c r="E21">
-        <v>20.89760607006963</v>
+        <v>42.17531547735703</v>
       </c>
       <c r="F21">
-        <v>37.29850244377744</v>
+        <v>56.27405306066342</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.18511941245413</v>
+        <v>10.55502674051769</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.32248186787035</v>
+        <v>43.30362194841131</v>
       </c>
       <c r="C22">
-        <v>17.05461411943589</v>
+        <v>33.88981283707424</v>
       </c>
       <c r="D22">
-        <v>5.397715049526521</v>
+        <v>5.065922138699158</v>
       </c>
       <c r="E22">
-        <v>21.66007742077278</v>
+        <v>44.34617601160615</v>
       </c>
       <c r="F22">
-        <v>37.93434744083881</v>
+        <v>58.95863228266604</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.14205127403829</v>
+        <v>10.39302164979057</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.98467222003882</v>
+        <v>42.29063745891838</v>
       </c>
       <c r="C23">
-        <v>16.73761883403753</v>
+        <v>33.08825284238341</v>
       </c>
       <c r="D23">
-        <v>5.396836316537512</v>
+        <v>4.91151116659575</v>
       </c>
       <c r="E23">
-        <v>21.25624525779039</v>
+        <v>43.18217032773111</v>
       </c>
       <c r="F23">
-        <v>37.59520630896871</v>
+        <v>57.52160239715703</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.16487407481469</v>
+        <v>10.47812561429668</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.66919818016649</v>
+        <v>38.44378636743031</v>
       </c>
       <c r="C24">
-        <v>15.48307098709758</v>
+        <v>30.05513124908417</v>
       </c>
       <c r="D24">
-        <v>5.396404530088661</v>
+        <v>4.465053739899207</v>
       </c>
       <c r="E24">
-        <v>19.65816971602738</v>
+        <v>38.86248353755462</v>
       </c>
       <c r="F24">
-        <v>36.3071208209746</v>
+        <v>52.147436534893</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.25489358821267</v>
+        <v>10.82708216925999</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.17962238864113</v>
+        <v>34.19524153789094</v>
       </c>
       <c r="C25">
-        <v>14.1163163754722</v>
+        <v>26.72171157539385</v>
       </c>
       <c r="D25">
-        <v>5.401966546699272</v>
+        <v>4.23985958983791</v>
       </c>
       <c r="E25">
-        <v>17.78629376902386</v>
+        <v>34.24587849566004</v>
       </c>
       <c r="F25">
-        <v>34.91800615943511</v>
+        <v>46.37477848998938</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.35958798893854</v>
+        <v>11.24426411762605</v>
       </c>
       <c r="O25">
         <v>0</v>
